--- a/data/trans_camb/P35-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P35-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.141696464551381</v>
+        <v>-2.217597443198628</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.568524571839977</v>
+        <v>1.64923937168558</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.761019672483517</v>
+        <v>5.604332008872619</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.205198503870821</v>
+        <v>4.270997269904483</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.570430693773553</v>
+        <v>2.353207624598292</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>15.44542781183614</v>
+        <v>15.09502940548777</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.028672994507506</v>
+        <v>1.796219761100635</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.138624542130656</v>
+        <v>2.822536298993439</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>12.0864735105311</v>
+        <v>12.37851461839768</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.62786568528789</v>
+        <v>3.364834797846453</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.08880778092996</v>
+        <v>9.216777490616217</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.82518093350149</v>
+        <v>17.63853803927984</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.15981974211598</v>
+        <v>12.26379301289612</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.798910533195054</v>
+        <v>9.699829327315349</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>29.79732315800301</v>
+        <v>29.23628286797277</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.022554595615199</v>
+        <v>6.989674610401322</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.050988190822949</v>
+        <v>8.181797537944146</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>20.76174945507899</v>
+        <v>21.18549353930128</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>1.088774453852316</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>2.433522603255728</v>
+        <v>2.433522603255729</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.534353577938015</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.368776852450083</v>
+        <v>-0.3935296772196306</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2423931781066527</v>
+        <v>0.2352872095481777</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.9354583536674971</v>
+        <v>0.8082693755436242</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.5763334627997421</v>
+        <v>0.5459887172855664</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3210462689046102</v>
+        <v>0.242850104518937</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.144504868943041</v>
+        <v>2.130400149649035</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3275754969565519</v>
+        <v>0.2593797133720084</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4616846099499199</v>
+        <v>0.4433729229558188</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>2.008008445904997</v>
+        <v>1.968999488258348</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.07242843031082</v>
+        <v>1.060308751753182</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.69482269313683</v>
+        <v>2.722564635578149</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.878603952464265</v>
+        <v>4.93343825705078</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.946591283393541</v>
+        <v>2.99678499514689</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.417302501584686</v>
+        <v>2.406239262051639</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>7.305278981499134</v>
+        <v>7.611642767111428</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.688380992749988</v>
+        <v>1.671779113372521</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.034003399496406</v>
+        <v>2.026716443027642</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>5.153177889493703</v>
+        <v>5.043171099756726</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>11.60650515868607</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>18.0895046564261</v>
+        <v>18.08950465642611</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.447632032379083</v>
+        <v>6.371971008947719</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.057407686501193</v>
+        <v>6.027289608258434</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.49970096705915</v>
+        <v>16.04267529073534</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.760172282689377</v>
+        <v>5.962675675060192</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>9.370036929367961</v>
+        <v>9.942594950563985</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>9.606252922409048</v>
+        <v>9.726522310109768</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.221795823239523</v>
+        <v>7.309163874281801</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>9.053103553872969</v>
+        <v>8.762997039924276</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>14.54994103716959</v>
+        <v>14.27928181342995</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.85823416387028</v>
+        <v>12.51154971181596</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.36624879873511</v>
+        <v>12.2214086089334</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26.65042585154821</v>
+        <v>26.64070869227164</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.60341180299269</v>
+        <v>14.77177521290497</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.04995411498975</v>
+        <v>18.12088390785068</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.94324177336827</v>
+        <v>19.13226768808114</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.6775038535126</v>
+        <v>12.5676405730969</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>14.45133865296603</v>
+        <v>14.31010841081551</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>21.83337426177074</v>
+        <v>21.65903254567154</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1.208745125863519</v>
+        <v>1.218117249633109</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1.205865351584737</v>
+        <v>1.196864271342969</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3.24005571056005</v>
+        <v>3.281587069843589</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4789249242303986</v>
+        <v>0.4713368761269051</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7685165185761017</v>
+        <v>0.813559044959357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8060490297836798</v>
+        <v>0.7973947158450881</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9000413434400604</v>
+        <v>0.9369261863700583</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1.134813637690555</v>
+        <v>1.116162322770745</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.86215987358854</v>
+        <v>1.790007520604921</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.367691227860345</v>
+        <v>4.138231350760936</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.260197373575793</v>
+        <v>4.023709869803783</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8.464772853228238</v>
+        <v>9.054663689527549</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.758248382251143</v>
+        <v>1.700092123860647</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.178932024345351</v>
+        <v>2.151618836819007</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.295075966908078</v>
+        <v>2.228192542937987</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.128752046917173</v>
+        <v>2.180461227661156</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.535476602784216</v>
+        <v>2.462448129892878</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.801391162644878</v>
+        <v>3.798020877183153</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>10.44251987515882</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16.59819135546887</v>
+        <v>16.59819135546888</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>14.54140499012571</v>
@@ -1083,7 +1083,7 @@
         <v>14.70495797155456</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>19.69072446008821</v>
+        <v>19.69072446008822</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>11.2802456893844</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.416350371840737</v>
+        <v>3.650399473980733</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.296833687107386</v>
+        <v>6.151697040523281</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.45563720655212</v>
+        <v>12.11867888528589</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10.50060081332268</v>
+        <v>10.11356476710373</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>10.51489053609171</v>
+        <v>10.35509947438457</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>15.43755717935329</v>
+        <v>15.30104742045345</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.480416392591101</v>
+        <v>8.154398489950468</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.718618887396307</v>
+        <v>9.68610667723971</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>15.08160680739957</v>
+        <v>15.09079194230888</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.50711505881906</v>
+        <v>11.58666524567835</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.10645677168409</v>
+        <v>14.76776932746244</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.66998676257423</v>
+        <v>20.99607891268555</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.91588108680135</v>
+        <v>18.89885866162141</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>19.09472507096851</v>
+        <v>18.83564642990312</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>23.75162994028454</v>
+        <v>23.68822190517037</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.16594979109924</v>
+        <v>13.92555544605565</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.66846475091078</v>
+        <v>15.4219450769403</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>21.14415536076856</v>
+        <v>21.35205633109283</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>1.110263622228073</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.764743402652829</v>
+        <v>1.76474340265283</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.13931108914193</v>
@@ -1188,7 +1188,7 @@
         <v>1.152125375349532</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.54275743959063</v>
+        <v>1.542757439590631</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.01290071108142</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2866696039665397</v>
+        <v>0.3268634246164829</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.5258145939789487</v>
+        <v>0.5269000195965052</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.9649347322271802</v>
+        <v>1.063675930588705</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.6954391388686861</v>
+        <v>0.6754729960488477</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7118065019939517</v>
+        <v>0.719678892545712</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.009968424912113</v>
+        <v>1.056518655825707</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6927485655304331</v>
+        <v>0.6521806174722123</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.7502277894401659</v>
+        <v>0.8040802885722966</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.195921190642085</v>
+        <v>1.207556535371172</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.527882746241824</v>
+        <v>1.516819890378477</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.824869769866395</v>
+        <v>1.934040433354385</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.691570014318534</v>
+        <v>2.735504137047827</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.710438246372311</v>
+        <v>1.802591029900304</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.728305758740393</v>
+        <v>1.802595329318943</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.207609053765739</v>
+        <v>2.193526528355529</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.424218613221991</v>
+        <v>1.427260898283544</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.563043414780881</v>
+        <v>1.604768637097969</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.154743570086264</v>
+        <v>2.169382958612906</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>16.91002754359521</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20.07604016557062</v>
+        <v>20.0760401655706</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>15.45101124474641</v>
@@ -1297,7 +1297,7 @@
         <v>15.96766449739667</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.3111503911814</v>
+        <v>18.31115039118142</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>12.85373876492445</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.169140809567462</v>
+        <v>4.960674493971819</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>11.75198184276061</v>
+        <v>11.70081740532859</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15.08580561811528</v>
+        <v>14.53505588897431</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.998436041770658</v>
+        <v>10.24293453639438</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>10.83102478591545</v>
+        <v>10.78426814971612</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>13.68101145816052</v>
+        <v>13.83232768008733</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>8.973438526988835</v>
+        <v>9.195052116459349</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>12.78221403120745</v>
+        <v>12.79156903623361</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>15.67251749874898</v>
+        <v>15.90281142325648</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.0097932702658</v>
+        <v>15.20800322506423</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.76441072474216</v>
+        <v>21.52358454601611</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25.34086372286997</v>
+        <v>24.43694425627655</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20.77829012103927</v>
+        <v>20.61694737269368</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>21.51889452196246</v>
+        <v>20.76554855783808</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.90956177305315</v>
+        <v>23.00803213200901</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.74880890305289</v>
+        <v>16.65564710211994</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>20.13358894498632</v>
+        <v>20.23881148669515</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>22.32724058120234</v>
+        <v>22.77747561890349</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>1.176803845971425</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.397133222746799</v>
+        <v>1.397133222746798</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.8006900736792302</v>
@@ -1402,7 +1402,7 @@
         <v>0.8274636695545037</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9489059404349123</v>
+        <v>0.9489059404349132</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.7634335857105921</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3114463197808197</v>
+        <v>0.3053292340639538</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.7035619047460138</v>
+        <v>0.6921034264282586</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8852314897504612</v>
+        <v>0.8611955080281984</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4516308538273147</v>
+        <v>0.4636101686924065</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4601962907297739</v>
+        <v>0.4668845604393856</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6088833582870303</v>
+        <v>0.611183947945164</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4829890278471509</v>
+        <v>0.4929263936848207</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6970139277550349</v>
+        <v>0.6818390827185071</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.8347058537530556</v>
+        <v>0.8423378127652653</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.269807486275738</v>
+        <v>1.231140431134768</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.835952274851626</v>
+        <v>1.778026298061794</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.148887224722609</v>
+        <v>2.043720866207352</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.244822270476918</v>
+        <v>1.238888782567612</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.281447961949467</v>
+        <v>1.220810504203608</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.375235841138206</v>
+        <v>1.442826695210104</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.142830599230278</v>
+        <v>1.127904920788443</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.351471533009059</v>
+        <v>1.383683993610135</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.514477756568945</v>
+        <v>1.534484487367646</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>9.601729683888133</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>10.01547676190375</v>
+        <v>10.01547676190376</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.487193192665329</v>
+        <v>3.194069217001656</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.42253907300386</v>
+        <v>-3.441983577968428</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.687066666832103</v>
+        <v>0.9249567267378538</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12.38813803444118</v>
+        <v>12.10059378922761</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>8.716629955758405</v>
+        <v>7.273272586680545</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.54109569785653</v>
+        <v>6.657452946562136</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>9.387687047888095</v>
+        <v>9.658141517678253</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.857599109749998</v>
+        <v>5.142165523045038</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.703328221036877</v>
+        <v>5.770509732445821</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>17.27365471945859</v>
+        <v>17.97112281246152</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.26871237082604</v>
+        <v>10.03899541136426</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.01415448704359</v>
+        <v>13.38198203755103</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>25.76068656138102</v>
+        <v>25.60582497260179</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>22.24010925316113</v>
+        <v>21.86355660462951</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>17.94066789743739</v>
+        <v>18.34894904058017</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>19.52531203449147</v>
+        <v>19.57589637438843</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>14.21832955915715</v>
+        <v>14.54940128069462</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>14.11119086228193</v>
+        <v>14.18737442400785</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.2792461953523581</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2912791624507644</v>
+        <v>0.2912791624507645</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.06386427203723574</v>
+        <v>0.07934364329439027</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.06580511942126008</v>
+        <v>-0.08644673472651826</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.04032387539495317</v>
+        <v>0.02339740296353358</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3484226674909555</v>
+        <v>0.3491608324014249</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2344242350357567</v>
+        <v>0.1967173097865519</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1822070532707814</v>
+        <v>0.1821037515357362</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2550484226469231</v>
+        <v>0.261420319339819</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1329346936951024</v>
+        <v>0.1374111813089458</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.154622388886233</v>
+        <v>0.157026381555441</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5246086344223079</v>
+        <v>0.555962962883641</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3508121519657634</v>
+        <v>0.3073835623914373</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4304614728418439</v>
+        <v>0.4076675133306001</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8920465790677221</v>
+        <v>0.8777801555697329</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7667416753637846</v>
+        <v>0.7672495273251618</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6337473128303629</v>
+        <v>0.6512814550096897</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6201510827916795</v>
+        <v>0.6143736135505253</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4447462605320889</v>
+        <v>0.454867510778494</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.449695899943966</v>
+        <v>0.4576080479367228</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.5426051141229599</v>
+        <v>-0.9353573406335716</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.6542728356689441</v>
+        <v>1.028063666759426</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.745081348686172</v>
+        <v>-4.015529726064538</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.821331806038206</v>
+        <v>2.690224109945365</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>3.437164338467944</v>
+        <v>3.090896905954616</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-4.93257340461915</v>
+        <v>-5.492113048684915</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>3.858285911366543</v>
+        <v>3.65459172670027</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>5.063539991511031</v>
+        <v>5.19524109950413</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.433274937897768</v>
+        <v>-2.73829413346177</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>15.49597417320051</v>
+        <v>16.4277200140932</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>16.27901075740371</v>
+        <v>15.85629248330337</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10.49208034711793</v>
+        <v>10.71856588255405</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17.576608727575</v>
+        <v>17.14916113940582</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>18.11306944835923</v>
+        <v>18.37899498325848</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.187818430521106</v>
+        <v>7.141197612141177</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>14.59422180462651</v>
+        <v>14.45052035067012</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>15.86860824948314</v>
+        <v>15.58606907075218</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>7.183500823812296</v>
+        <v>7.18097767471473</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.0110923183362429</v>
+        <v>-0.02192594961323526</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.01004569510198408</v>
+        <v>0.02061096286149025</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.07480435310979082</v>
+        <v>-0.08136001512932504</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.04081272136071512</v>
+        <v>0.05386113993809675</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.07018959197012892</v>
+        <v>0.05943741996367709</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.09628706541397872</v>
+        <v>-0.1068707660588042</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.07514273720879835</v>
+        <v>0.07620505726639881</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1013973895440111</v>
+        <v>0.1068139333762275</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.04875847133262575</v>
+        <v>-0.05442572881284315</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3811341345183517</v>
+        <v>0.3908407711570195</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3896345366729206</v>
+        <v>0.3899693361517223</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2595325074912552</v>
+        <v>0.264742418132661</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4111394248502606</v>
+        <v>0.403630826865669</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4174419213551974</v>
+        <v>0.4306132790557191</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1776473463274968</v>
+        <v>0.1690278067874145</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.330687840250661</v>
+        <v>0.3355216139364963</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3597965049725985</v>
+        <v>0.3687794099894846</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1688417564524079</v>
+        <v>0.1688303051366632</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-7.412209087815682</v>
+        <v>-7.274221458673977</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-15.45893207307651</v>
+        <v>-15.73033145949055</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-10.78920277425701</v>
+        <v>-9.954982651361536</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.891405490396151</v>
+        <v>-4.119148991602457</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-8.701484215509971</v>
+        <v>-8.385496248247842</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.4955748180948</v>
+        <v>-3.8926898317438</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.17415551360998</v>
+        <v>-2.158172430796487</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-8.897351330883641</v>
+        <v>-8.686678556287223</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.688405778422621</v>
+        <v>-4.548594128193064</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.56581586575875</v>
+        <v>11.78021636091202</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.241688975721253</v>
+        <v>2.532485458147702</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.043703397409591</v>
+        <v>5.945986420080636</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11.39966351735804</v>
+        <v>11.56700967085114</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.008851179177553</v>
+        <v>7.692474371881432</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>8.821521197265978</v>
+        <v>8.76475518363805</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>9.407286829382095</v>
+        <v>9.729777000514872</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.489571591126313</v>
+        <v>3.291184427340309</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.019293748246902</v>
+        <v>5.788149297821887</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1285669543375547</v>
+        <v>-0.1259890811402348</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2744354103694379</v>
+        <v>-0.2735935499960321</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1804244577874372</v>
+        <v>-0.1692870948037992</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.07746180951840413</v>
+        <v>-0.07758700221132378</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1707558559825806</v>
+        <v>-0.1653552722758976</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.08670265070193174</v>
+        <v>-0.07435109489510228</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.04187103658161479</v>
+        <v>-0.04440783027114292</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1663340304209244</v>
+        <v>-0.1652498225072089</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.08945699091522008</v>
+        <v>-0.08574124050479276</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2407525075568117</v>
+        <v>0.2383971005812177</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.03822341280371494</v>
+        <v>0.05331542674853847</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1264334833373901</v>
+        <v>0.121552165503987</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2641558572874941</v>
+        <v>0.2752170913479117</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1629564860093038</v>
+        <v>0.173150742735975</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2083943614570127</v>
+        <v>0.2062812196832579</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.207693785372652</v>
+        <v>0.2106972462112041</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.07424141041960801</v>
+        <v>0.06989446982897644</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1299318337493212</v>
+        <v>0.1271300656638484</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>13.27922090986666</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>16.31950714808991</v>
+        <v>16.3195071480899</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>10.70245045746203</v>
@@ -2162,7 +2162,7 @@
         <v>11.88826055553441</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>16.62071870938206</v>
+        <v>16.62071870938205</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>6.422380644375238</v>
+        <v>6.48994697242652</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>8.049716118370569</v>
+        <v>8.33235871473088</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>14.5641482592504</v>
+        <v>14.70577044290974</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>10.68492799147491</v>
+        <v>10.60031607946291</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>10.77554994783617</v>
+        <v>11.10243079061028</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>14.34614127475226</v>
+        <v>14.3476832695069</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>9.090193491961832</v>
+        <v>9.219046853973973</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>10.11931205312681</v>
+        <v>10.26792281125857</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>15.00131842025873</v>
+        <v>15.0446257914721</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>10.56213393234781</v>
+        <v>10.55985951703798</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>12.46678847413154</v>
+        <v>12.5316627517625</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>19.08332145587742</v>
+        <v>19.12268777394885</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>15.07801984724563</v>
+        <v>15.07939721120851</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>15.23065818810831</v>
+        <v>15.72312528284074</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>18.35830178566853</v>
+        <v>18.10505858636906</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>12.17601160464625</v>
+        <v>12.23363754614232</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>13.2819187001964</v>
+        <v>13.33332246650617</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>18.00273259881637</v>
+        <v>17.98584942867111</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.6159602135065376</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.7569847038081891</v>
+        <v>0.7569847038081888</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.5472699027639356</v>
@@ -2267,7 +2267,7 @@
         <v>0.6079063130559444</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.8499006043618977</v>
+        <v>0.8499006043618972</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.3481188552346004</v>
+        <v>0.3449561505631423</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.4387597273953923</v>
+        <v>0.4484832427435414</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.7722796433225662</v>
+        <v>0.7918498523586908</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.4735029579907021</v>
+        <v>0.4698795632750739</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.4778061998751382</v>
+        <v>0.4861353915337671</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.6340533245373785</v>
+        <v>0.6314412733912732</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4502071697125454</v>
+        <v>0.4528030829451142</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.4960647250517711</v>
+        <v>0.5059571110432743</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.737046200877972</v>
+        <v>0.7416418250378066</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6381300622341198</v>
+        <v>0.6325168611426772</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.743251019785555</v>
+        <v>0.7514870767009634</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.154654447932874</v>
+        <v>1.138665909015117</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7461071272290791</v>
+        <v>0.7425702808748065</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7429629770519389</v>
+        <v>0.7604818018221378</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.9030462116145954</v>
+        <v>0.8807438722299317</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.6463705432655595</v>
+        <v>0.6485833519459425</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.7045618998063785</v>
+        <v>0.7130247971162081</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.9602707157738705</v>
+        <v>0.9551851376047972</v>
       </c>
     </row>
     <row r="52">
